--- a/mask.xlsx
+++ b/mask.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\piranha\constructor_TVR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99C3999-F162-45E1-B0E1-98238B0CE548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3305EE12-2CA0-4177-91FF-E7A13695AF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>row_alias</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Sec 1</t>
   </si>
   <si>
-    <t>V 1</t>
-  </si>
-  <si>
     <t>W 1</t>
   </si>
   <si>
@@ -61,16 +58,10 @@
     <t>filter_4_long_&amp;_short</t>
   </si>
   <si>
-    <t>filter_5_long_&amp;_short</t>
-  </si>
-  <si>
-    <t>filter_6_long_&amp;_short</t>
-  </si>
-  <si>
-    <t>filter_7_long_&amp;_short</t>
-  </si>
-  <si>
-    <t>filter_3_long_&amp;_short__2</t>
+    <t>filter_2_long_&amp;_short__2</t>
+  </si>
+  <si>
+    <t>filter_1_long_&amp;_short__2</t>
   </si>
   <si>
     <t>base_short</t>
@@ -91,7 +82,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,9 +146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,9 +186,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,9 +220,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +272,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,18 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H1" sqref="H1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,13 +496,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -489,13 +513,13 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1001</v>
@@ -509,39 +533,42 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1002</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>1003</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1004</v>
-      </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -551,13 +578,13 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1006</v>
@@ -569,12 +596,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -582,53 +609,28 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1010</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>1015</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
-    <sortCondition ref="B2:B11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition ref="B2:B9"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>